--- a/datatata.xlsx
+++ b/datatata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1512,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L190"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -1594,11 +1594,11 @@
         <v>0.628</v>
       </c>
       <c r="G2" s="10">
-        <f>K2/0.305</f>
+        <f t="shared" ref="G2:G33" si="0">K2/0.305</f>
         <v>5.2459016393442623E-2</v>
       </c>
       <c r="H2" s="10">
-        <f>E2/273.33</f>
+        <f t="shared" ref="H2:H33" si="1">E2/273.33</f>
         <v>0.56097025573482606</v>
       </c>
       <c r="I2" s="8">
@@ -1613,8 +1613,12 @@
       <c r="L2" s="18">
         <v>2903700</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <f>I2 / L2</f>
+        <v>0.62789992079071533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
@@ -1634,11 +1638,11 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="G3" s="10">
-        <f>K3/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.14098360655737704</v>
       </c>
       <c r="H3" s="10">
-        <f>E3/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.63414187977902181</v>
       </c>
       <c r="I3" s="8">
@@ -1653,8 +1657,12 @@
       <c r="L3" s="18">
         <v>40375954</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M66" si="2">I3 / L3</f>
+        <v>0.19660001098673729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
@@ -1674,11 +1682,11 @@
         <v>0.23</v>
       </c>
       <c r="G4" s="10">
-        <f>K4/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.18688524590163935</v>
       </c>
       <c r="H4" s="10">
-        <f>E4/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.58537299235356532</v>
       </c>
       <c r="I4" s="8">
@@ -1693,8 +1701,12 @@
       <c r="L4" s="18">
         <v>25830958</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.230400010715824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
@@ -1714,11 +1726,11 @@
         <v>0.65</v>
       </c>
       <c r="G5" s="10">
-        <f>K5/0.305</f>
+        <f t="shared" si="0"/>
         <v>5.9016393442622946E-2</v>
       </c>
       <c r="H5" s="10">
-        <f>E5/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I5" s="8">
@@ -1733,8 +1745,12 @@
       <c r="L5" s="18">
         <v>92738</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6502835946429727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
@@ -1754,11 +1770,11 @@
         <v>0.69199999999999995</v>
       </c>
       <c r="G6" s="10">
-        <f>K6/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.10163934426229508</v>
       </c>
       <c r="H6" s="10">
-        <f>E6/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.8292906011048915</v>
       </c>
       <c r="I6" s="8">
@@ -1773,8 +1789,12 @@
       <c r="L6" s="18">
         <v>43847277</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69240000924116674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1794,11 +1814,11 @@
         <v>0.499</v>
       </c>
       <c r="G7" s="10">
-        <f>K7/0.305</f>
+        <f t="shared" si="0"/>
         <v>8.5245901639344257E-2</v>
       </c>
       <c r="H7" s="10">
-        <f>E7/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.45121281966853255</v>
       </c>
       <c r="I7" s="8">
@@ -1813,8 +1833,12 @@
       <c r="L7" s="18">
         <v>3026048</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49930007719639607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -1834,11 +1858,11 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="G8" s="10">
-        <f>K8/0.305</f>
+        <f t="shared" si="0"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H8" s="10">
-        <f>E8/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.8902425639337066</v>
       </c>
       <c r="I8" s="8">
@@ -1853,8 +1877,12 @@
       <c r="L8" s="18">
         <v>24309330</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85068119935843567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
@@ -1874,11 +1902,11 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="G9" s="10">
-        <f>K9/0.305</f>
+        <f t="shared" si="0"/>
         <v>9.8360655737704927E-3</v>
       </c>
       <c r="H9" s="10">
-        <f>E9/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.95123111257454362</v>
       </c>
       <c r="I9" s="8">
@@ -1893,8 +1921,12 @@
       <c r="L9" s="18">
         <v>8569633</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8113999747713817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1914,11 +1946,11 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="G10" s="10">
-        <f>K10/0.305</f>
+        <f t="shared" si="0"/>
         <v>3.9344262295081971E-2</v>
       </c>
       <c r="H10" s="10">
-        <f>E10/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.59755606775692394</v>
       </c>
       <c r="I10" s="8">
@@ -1933,8 +1965,12 @@
       <c r="L10" s="18">
         <v>9868447</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61079995666998055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>14</v>
       </c>
@@ -1954,11 +1990,11 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="G11" s="10">
-        <f>K11/0.305</f>
+        <f t="shared" si="0"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H11" s="10">
-        <f>E11/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.87805948853034799</v>
       </c>
       <c r="I11" s="8">
@@ -1973,8 +2009,12 @@
       <c r="L11" s="18">
         <v>1396829</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9154678203273271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
@@ -1994,11 +2034,11 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="G12" s="10">
-        <f>K12/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.34098360655737703</v>
       </c>
       <c r="H12" s="10">
-        <f>E12/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.69513042841985884</v>
       </c>
       <c r="I12" s="8">
@@ -2013,8 +2053,12 @@
       <c r="L12" s="18">
         <v>162910864</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13160000182676584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
@@ -2034,11 +2078,11 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="G13" s="10">
-        <f>K13/0.305</f>
+        <f t="shared" si="0"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H13" s="10">
-        <f>E13/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.8902425639337066</v>
       </c>
       <c r="I13" s="8">
@@ -2053,8 +2097,12 @@
       <c r="L13" s="18">
         <v>285006</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80249889476011027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>17</v>
       </c>
@@ -2074,11 +2122,11 @@
         <v>0.61</v>
       </c>
       <c r="G14" s="10">
-        <f>K14/0.305</f>
+        <f t="shared" si="0"/>
         <v>2.9508196721311473E-2</v>
       </c>
       <c r="H14" s="10">
-        <f>E14/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.48779863169063042</v>
       </c>
       <c r="I14" s="8">
@@ -2093,8 +2141,12 @@
       <c r="L14" s="18">
         <v>9481521</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61029997191378893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>18</v>
       </c>
@@ -2114,11 +2166,11 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="G15" s="10">
-        <f>K15/0.305</f>
+        <f t="shared" si="0"/>
         <v>6.2295081967213117E-2</v>
       </c>
       <c r="H15" s="10">
-        <f>E15/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.8902425639337066</v>
       </c>
       <c r="I15" s="8">
@@ -2133,8 +2185,12 @@
       <c r="L15" s="18">
         <v>11371928</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88470002624005362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>19</v>
       </c>
@@ -2154,11 +2210,11 @@
         <v>0.45</v>
       </c>
       <c r="G16" s="10">
-        <f>K16/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.219672131147541</v>
       </c>
       <c r="H16" s="10">
-        <f>E16/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I16" s="8">
@@ -2173,8 +2229,12 @@
       <c r="L16" s="18">
         <v>366942</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44970049762632786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
@@ -2194,11 +2254,11 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="G17" s="10">
-        <f>K17/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.14754098360655737</v>
       </c>
       <c r="H17" s="10">
-        <f>E17/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I17" s="8">
@@ -2213,8 +2273,12 @@
       <c r="L17" s="18">
         <v>11166658</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6300013844786861E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
@@ -2234,11 +2298,11 @@
         <v>0.36899999999999999</v>
       </c>
       <c r="G18" s="10">
-        <f>K18/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.11147540983606559</v>
       </c>
       <c r="H18" s="10">
-        <f>E18/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.92682837595580447</v>
       </c>
       <c r="I18" s="8">
@@ -2253,8 +2317,12 @@
       <c r="L18" s="18">
         <v>784103</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36879976227612954</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>22</v>
       </c>
@@ -2274,11 +2342,11 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="G19" s="10">
-        <f>K19/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.10163934426229508</v>
       </c>
       <c r="H19" s="10">
-        <f>E19/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.67072769180111957</v>
       </c>
       <c r="I19" s="8">
@@ -2293,8 +2361,12 @@
       <c r="L19" s="18">
         <v>10888402</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.41130002363983253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>23</v>
       </c>
@@ -2314,11 +2386,11 @@
         <v>0.61599999999999999</v>
       </c>
       <c r="G20" s="10">
-        <f>K20/0.305</f>
+        <f t="shared" si="0"/>
         <v>6.5573770491803279E-3</v>
       </c>
       <c r="H20" s="10">
-        <f>E20/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.6219588043756632</v>
       </c>
       <c r="I20" s="8">
@@ -2333,8 +2405,12 @@
       <c r="L20" s="18">
         <v>3802134</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.61629995155352235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>24</v>
       </c>
@@ -2354,11 +2430,11 @@
         <v>0.214</v>
       </c>
       <c r="G21" s="10">
-        <f>K21/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.20327868852459016</v>
       </c>
       <c r="H21" s="10">
-        <f>E21/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I21" s="8">
@@ -2373,8 +2449,12 @@
       <c r="L21" s="18">
         <v>2303820</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2138999574619545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>25</v>
       </c>
@@ -2394,11 +2474,11 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="G22" s="10">
-        <f>K22/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.16721311475409836</v>
       </c>
       <c r="H22" s="10">
-        <f>E22/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I22" s="8">
@@ -2413,8 +2493,12 @@
       <c r="L22" s="18">
         <v>209567920</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66379999858757011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>26</v>
       </c>
@@ -2434,11 +2518,11 @@
         <v>0.72299999999999998</v>
       </c>
       <c r="G23" s="10">
-        <f>K23/0.305</f>
+        <f t="shared" si="0"/>
         <v>9.5081967213114765E-2</v>
       </c>
       <c r="H23" s="10">
-        <f>E23/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.92682837595580447</v>
       </c>
       <c r="I23" s="8">
@@ -2453,8 +2537,12 @@
       <c r="L23" s="18">
         <v>428874</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72330101614926523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2474,11 +2562,11 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="G24" s="10">
-        <f>K24/0.305</f>
+        <f t="shared" si="0"/>
         <v>2.9508196721311473E-2</v>
       </c>
       <c r="H24" s="10">
-        <f>E24/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.5243844437127283</v>
       </c>
       <c r="I24" s="8">
@@ -2493,8 +2581,12 @@
       <c r="L24" s="18">
         <v>7097796</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58540003122095929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>28</v>
       </c>
@@ -2514,11 +2606,11 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G25" s="10">
-        <f>K25/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.22950819672131151</v>
       </c>
       <c r="H25" s="10">
-        <f>E25/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.57318991695020671</v>
       </c>
       <c r="I25" s="8">
@@ -2533,8 +2625,12 @@
       <c r="L25" s="18">
         <v>18633725</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10167038528259915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>29</v>
       </c>
@@ -2554,11 +2650,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G26" s="10">
-        <f>K26/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.16721311475409836</v>
       </c>
       <c r="H26" s="10">
-        <f>E26/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.3658581202209783</v>
       </c>
       <c r="I26" s="8">
@@ -2573,8 +2669,12 @@
       <c r="L26" s="18">
         <v>11552561</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4499988357559852E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -2594,11 +2694,11 @@
         <v>0.111</v>
       </c>
       <c r="G27" s="10">
-        <f>K27/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.25901639344262295</v>
       </c>
       <c r="H27" s="10">
-        <f>E27/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I27" s="8">
@@ -2613,8 +2713,12 @@
       <c r="L27" s="18">
         <v>15827241</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11100001573236927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
@@ -2634,11 +2738,11 @@
         <v>0.18</v>
       </c>
       <c r="G28" s="10">
-        <f>K28/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.54098360655737709</v>
       </c>
       <c r="H28" s="10">
-        <f>E28/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.6219588043756632</v>
       </c>
       <c r="I28" s="8">
@@ -2653,8 +2757,12 @@
       <c r="L28" s="18">
         <v>23924407</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18019999408971768</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>32</v>
       </c>
@@ -2674,11 +2782,11 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="G29" s="10">
-        <f>K29/0.305</f>
+        <f t="shared" si="0"/>
         <v>5.9016393442622946E-2</v>
       </c>
       <c r="H29" s="10">
-        <f>E29/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.92682837595580447</v>
       </c>
       <c r="I29" s="8">
@@ -2693,8 +2801,12 @@
       <c r="L29" s="18">
         <v>36286378</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8851949621425429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
@@ -2714,11 +2826,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="G30" s="10">
-        <f>K30/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.17377049180327869</v>
       </c>
       <c r="H30" s="10">
-        <f>E30/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.59755606775692394</v>
       </c>
       <c r="I30" s="8">
@@ -2733,8 +2845,12 @@
       <c r="L30" s="18">
         <v>4998493</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4899932839757906E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
@@ -2754,11 +2870,11 @@
         <v>2.7E-2</v>
       </c>
       <c r="G31" s="10">
-        <f>K31/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.18032786885245902</v>
       </c>
       <c r="H31" s="10">
-        <f>E31/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.54878718033146745</v>
       </c>
       <c r="I31" s="8">
@@ -2773,8 +2889,12 @@
       <c r="L31" s="18">
         <v>14496739</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6700004738996818E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>35</v>
       </c>
@@ -2794,11 +2914,11 @@
         <v>0.77800000000000002</v>
       </c>
       <c r="G32" s="10">
-        <f>K32/0.305</f>
+        <f t="shared" si="0"/>
         <v>0.10819672131147541</v>
       </c>
       <c r="H32" s="10">
-        <f>E32/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.79270478908279374</v>
       </c>
       <c r="I32" s="8">
@@ -2813,8 +2933,12 @@
       <c r="L32" s="18">
         <v>18131850</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77809997325148839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>36</v>
       </c>
@@ -2834,11 +2958,11 @@
         <v>0.52200000000000002</v>
       </c>
       <c r="G33" s="10">
-        <f>K33/0.305</f>
+        <f t="shared" si="0"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H33" s="10">
-        <f>E33/273.33</f>
+        <f t="shared" si="1"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I33" s="8">
@@ -2853,8 +2977,12 @@
       <c r="L33" s="18">
         <v>1382323332</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52190000002112391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>37</v>
       </c>
@@ -2874,11 +3002,11 @@
         <v>0.56899999999999995</v>
       </c>
       <c r="G34" s="10">
-        <f>K34/0.305</f>
+        <f t="shared" ref="G34:G65" si="3">K34/0.305</f>
         <v>0.16065573770491803</v>
       </c>
       <c r="H34" s="10">
-        <f>E34/273.33</f>
+        <f t="shared" ref="H34:H65" si="4">E34/273.33</f>
         <v>0.87805948853034799</v>
       </c>
       <c r="I34" s="8">
@@ -2893,8 +3021,12 @@
       <c r="L34" s="18">
         <v>48654392</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56859711657685497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>38</v>
       </c>
@@ -2914,11 +3046,11 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="G35" s="10">
-        <f>K35/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.12786885245901639</v>
       </c>
       <c r="H35" s="10">
-        <f>E35/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.71953316503859799</v>
       </c>
       <c r="I35" s="8">
@@ -2933,8 +3065,12 @@
       <c r="L35" s="18">
         <v>807118</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3399428584172324E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>39</v>
       </c>
@@ -2954,11 +3090,11 @@
         <v>0.56399999999999995</v>
       </c>
       <c r="G36" s="10">
-        <f>K36/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.16393442622950821</v>
       </c>
       <c r="H36" s="10">
-        <f>E36/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.91464530055244586</v>
       </c>
       <c r="I36" s="8">
@@ -2973,8 +3109,12 @@
       <c r="L36" s="18">
         <v>4857218</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.56380010121019897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>44</v>
       </c>
@@ -2994,11 +3134,11 @@
         <v>0.22</v>
       </c>
       <c r="G37" s="10">
-        <f>K37/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.46885245901639344</v>
       </c>
       <c r="H37" s="10">
-        <f>E37/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.54878718033146745</v>
       </c>
       <c r="I37" s="8">
@@ -3013,8 +3153,12 @@
       <c r="L37" s="18">
         <v>23254184</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2203000113871981</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>40</v>
       </c>
@@ -3034,11 +3178,11 @@
         <v>0.74199999999999999</v>
       </c>
       <c r="G38" s="10">
-        <f>K38/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.11803278688524589</v>
       </c>
       <c r="H38" s="10">
-        <f>E38/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.71953316503859799</v>
       </c>
       <c r="I38" s="8">
@@ -3053,8 +3197,12 @@
       <c r="L38" s="18">
         <v>4225001</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7416530788986796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>41</v>
       </c>
@@ -3074,11 +3222,11 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="G39" s="10">
-        <f>K39/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.13114754098360656</v>
       </c>
       <c r="H39" s="10">
-        <f>E39/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I39" s="8">
@@ -3093,8 +3241,12 @@
       <c r="L39" s="18">
         <v>11392889</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32448003311539331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>42</v>
       </c>
@@ -3114,11 +3266,11 @@
         <v>0.71799999999999997</v>
       </c>
       <c r="G40" s="10">
-        <f>K40/0.305</f>
+        <f t="shared" si="3"/>
         <v>6.5573770491803282E-2</v>
       </c>
       <c r="H40" s="10">
-        <f>E40/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I40" s="8">
@@ -3133,8 +3285,12 @@
       <c r="L40" s="18">
         <v>1176598</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71790025140277303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>43</v>
       </c>
@@ -3154,11 +3310,11 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="G41" s="10">
-        <f>K41/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.10491803278688525</v>
       </c>
       <c r="H41" s="10">
-        <f>E41/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.78048512786741309</v>
       </c>
       <c r="I41" s="8">
@@ -3173,8 +3329,12 @@
       <c r="L41" s="18">
         <v>10548058</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88389995580229086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>45</v>
       </c>
@@ -3194,11 +3354,11 @@
         <v>0.96299999999999997</v>
       </c>
       <c r="G42" s="10">
-        <f>K42/0.305</f>
+        <f t="shared" si="3"/>
         <v>1.6393442622950821E-2</v>
       </c>
       <c r="H42" s="10">
-        <f>E42/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.85365675191160872</v>
       </c>
       <c r="I42" s="8">
@@ -3213,8 +3373,12 @@
       <c r="L42" s="18">
         <v>5690750</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96279998242762377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>46</v>
       </c>
@@ -3234,11 +3398,11 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="G43" s="10">
-        <f>K43/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.13114754098360656</v>
       </c>
       <c r="H43" s="10">
-        <f>E43/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.58537299235356532</v>
       </c>
       <c r="I43" s="8">
@@ -3253,8 +3417,12 @@
       <c r="L43" s="18">
         <v>899598</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1168999931080327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>47</v>
       </c>
@@ -3274,11 +3442,11 @@
         <v>0.66100000000000003</v>
       </c>
       <c r="G44" s="10">
-        <f>K44/0.305</f>
+        <f t="shared" si="3"/>
         <v>6.5573770491803282E-2</v>
       </c>
       <c r="H44" s="10">
-        <f>E44/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.8902425639337066</v>
       </c>
       <c r="I44" s="8">
@@ -3293,8 +3461,12 @@
       <c r="L44" s="18">
         <v>73016</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66080037252109125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>48</v>
       </c>
@@ -3314,11 +3486,11 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="G45" s="10">
-        <f>K45/0.305</f>
+        <f t="shared" si="3"/>
         <v>8.1967213114754106E-2</v>
       </c>
       <c r="H45" s="10">
-        <f>E45/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.85365675191160872</v>
       </c>
       <c r="I45" s="8">
@@ -3333,8 +3505,12 @@
       <c r="L45" s="18">
         <v>10648613</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51780001771122686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>49</v>
       </c>
@@ -3354,11 +3530,11 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="G46" s="10">
-        <f>K46/0.305</f>
+        <f t="shared" si="3"/>
         <v>4.9180327868852458E-2</v>
       </c>
       <c r="H46" s="10">
-        <f>E46/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I46" s="8">
@@ -3373,8 +3549,12 @@
       <c r="L46" s="18">
         <v>16385450</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43060001403684367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>50</v>
       </c>
@@ -3394,11 +3574,11 @@
         <v>0.33</v>
       </c>
       <c r="G47" s="10">
-        <f>K47/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.10819672131147541</v>
       </c>
       <c r="H47" s="10">
-        <f>E47/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.58537299235356532</v>
       </c>
       <c r="I47" s="8">
@@ -3413,8 +3593,12 @@
       <c r="L47" s="18">
         <v>93383574</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33019999855649129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>51</v>
       </c>
@@ -3434,11 +3618,11 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="G48" s="10">
-        <f>K48/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.25573770491803277</v>
       </c>
       <c r="H48" s="10">
-        <f>E48/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I48" s="8">
@@ -3453,8 +3637,12 @@
       <c r="L48" s="18">
         <v>6146419</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38279996856706322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>52</v>
       </c>
@@ -3474,11 +3662,11 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="G49" s="10">
-        <f>K49/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H49" s="10">
-        <f>E49/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.63414187977902181</v>
       </c>
       <c r="I49" s="8">
@@ -3493,8 +3681,12 @@
       <c r="L49" s="18">
         <v>869587</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20890031704705797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>53</v>
       </c>
@@ -3514,11 +3706,11 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="G50" s="10">
-        <f>K50/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.15737704918032788</v>
       </c>
       <c r="H50" s="10">
-        <f>E50/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.53660410492810884</v>
       </c>
       <c r="I50" s="8">
@@ -3533,8 +3725,12 @@
       <c r="L50" s="18">
         <v>5351680</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0600035876584549E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>54</v>
       </c>
@@ -3554,11 +3750,11 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="G51" s="10">
-        <f>K51/0.305</f>
+        <f t="shared" si="3"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H51" s="10">
-        <f>E51/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.6219588043756632</v>
       </c>
       <c r="I51" s="8">
@@ -3573,8 +3769,12 @@
       <c r="L51" s="18">
         <v>1309104</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.91399995722265004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>55</v>
       </c>
@@ -3594,11 +3794,11 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G52" s="10">
-        <f>K52/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.439344262295082</v>
       </c>
       <c r="H52" s="10">
-        <f>E52/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.57318991695020671</v>
       </c>
       <c r="I52" s="8">
@@ -3613,8 +3813,12 @@
       <c r="L52" s="18">
         <v>101853268</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2100004096088502E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>56</v>
       </c>
@@ -3634,11 +3838,11 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="G53" s="10">
-        <f>K53/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.13114754098360656</v>
       </c>
       <c r="H53" s="10">
-        <f>E53/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.81707093988951096</v>
       </c>
       <c r="I53" s="8">
@@ -3653,8 +3857,12 @@
       <c r="L53" s="18">
         <v>897537</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46790048766791786</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>57</v>
       </c>
@@ -3674,11 +3882,11 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="G54" s="10">
-        <f>K54/0.305</f>
+        <f t="shared" si="3"/>
         <v>1.3114754098360656E-2</v>
       </c>
       <c r="H54" s="10">
-        <f>E54/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.93904803717118512</v>
       </c>
       <c r="I54" s="8">
@@ -3693,8 +3901,12 @@
       <c r="L54" s="18">
         <v>5523904</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92460006546094931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>58</v>
       </c>
@@ -3714,11 +3926,11 @@
         <v>0.86399999999999999</v>
       </c>
       <c r="G55" s="10">
-        <f>K55/0.305</f>
+        <f t="shared" si="3"/>
         <v>4.59016393442623E-2</v>
       </c>
       <c r="H55" s="10">
-        <f>E55/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I55" s="8">
@@ -3733,8 +3945,12 @@
       <c r="L55" s="18">
         <v>64668129</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86380000262571377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>59</v>
       </c>
@@ -3754,11 +3970,11 @@
         <v>0.10299999999999999</v>
       </c>
       <c r="G56" s="10">
-        <f>K56/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.12786885245901639</v>
       </c>
       <c r="H56" s="10">
-        <f>E56/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.75611897706069586</v>
       </c>
       <c r="I56" s="8">
@@ -3773,8 +3989,12 @@
       <c r="L56" s="18">
         <v>1763142</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10340006647224104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>60</v>
       </c>
@@ -3794,11 +4014,11 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="G57" s="10">
-        <f>K57/0.305</f>
+        <f t="shared" si="3"/>
         <v>6.2295081967213117E-2</v>
       </c>
       <c r="H57" s="10">
-        <f>E57/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.50001829290601107</v>
       </c>
       <c r="I57" s="8">
@@ -3813,8 +4033,12 @@
       <c r="L57" s="18">
         <v>3979781</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52889995705793857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>61</v>
       </c>
@@ -3834,11 +4058,11 @@
         <v>0.88</v>
       </c>
       <c r="G58" s="10">
-        <f>K58/0.305</f>
+        <f t="shared" si="3"/>
         <v>1.9672131147540985E-2</v>
       </c>
       <c r="H58" s="10">
-        <f>E58/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.87805948853034799</v>
       </c>
       <c r="I58" s="8">
@@ -3853,8 +4077,12 @@
       <c r="L58" s="18">
         <v>80682351</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88019999565952167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>62</v>
       </c>
@@ -3874,11 +4102,11 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="G59" s="10">
-        <f>K59/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.45901639344262302</v>
       </c>
       <c r="H59" s="10">
-        <f>E59/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.75611897706069586</v>
       </c>
       <c r="I59" s="8">
@@ -3893,8 +4121,12 @@
       <c r="L59" s="18">
         <v>28033375</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.283899994203338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>63</v>
       </c>
@@ -3914,11 +4146,11 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="G60" s="10">
-        <f>K60/0.305</f>
+        <f t="shared" si="3"/>
         <v>1.3114754098360656E-2</v>
       </c>
       <c r="H60" s="10">
-        <f>E60/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I60" s="8">
@@ -3933,8 +4165,12 @@
       <c r="L60" s="18">
         <v>10919459</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64770003715385538</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>64</v>
       </c>
@@ -3954,11 +4190,11 @@
         <v>0.38800000000000001</v>
       </c>
       <c r="G61" s="10">
-        <f>K61/0.305</f>
+        <f t="shared" si="3"/>
         <v>5.2459016393442623E-2</v>
       </c>
       <c r="H61" s="10">
-        <f>E61/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.79270478908279374</v>
       </c>
       <c r="I61" s="8">
@@ -3973,8 +4209,12 @@
       <c r="L61" s="18">
         <v>107327</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38829930958659054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>65</v>
       </c>
@@ -3994,11 +4234,11 @@
         <v>0.26500000000000001</v>
       </c>
       <c r="G62" s="10">
-        <f>K62/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.19016393442622953</v>
       </c>
       <c r="H62" s="10">
-        <f>E62/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.85365675191160872</v>
       </c>
       <c r="I62" s="8">
@@ -4013,8 +4253,12 @@
       <c r="L62" s="18">
         <v>16672956</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="1">
+        <f t="shared" si="2"/>
+        <v>0.26450000827687664</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>66</v>
       </c>
@@ -4034,11 +4278,11 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G63" s="10">
-        <f>K63/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.1540983606557377</v>
       </c>
       <c r="H63" s="10">
-        <f>E63/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.6219588043756632</v>
       </c>
       <c r="I63" s="8">
@@ -4053,8 +4297,12 @@
       <c r="L63" s="18">
         <v>12947122</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8299974310893186E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>67</v>
       </c>
@@ -4074,11 +4322,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G64" s="10">
-        <f>K64/0.305</f>
+        <f t="shared" si="3"/>
         <v>0.13442622950819674</v>
       </c>
       <c r="H64" s="10">
-        <f>E64/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I64" s="8">
@@ -4093,8 +4341,12 @@
       <c r="L64" s="18">
         <v>1888429</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5100075247732378E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>68</v>
       </c>
@@ -4114,11 +4366,11 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="G65" s="10">
-        <f>K65/0.305</f>
+        <f t="shared" si="3"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H65" s="10">
-        <f>E65/273.33</f>
+        <f t="shared" si="4"/>
         <v>0.87805948853034799</v>
       </c>
       <c r="I65" s="8">
@@ -4133,8 +4385,12 @@
       <c r="L65" s="18">
         <v>770610</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39579943161910697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>69</v>
       </c>
@@ -4154,11 +4410,11 @@
         <v>0.121</v>
       </c>
       <c r="G66" s="10">
-        <f>K66/0.305</f>
+        <f t="shared" ref="G66:G97" si="5">K66/0.305</f>
         <v>9.8360655737704916E-2</v>
       </c>
       <c r="H66" s="10">
-        <f>E66/273.33</f>
+        <f t="shared" ref="H66:H97" si="6">E66/273.33</f>
         <v>0.67072769180111957</v>
       </c>
       <c r="I66" s="8">
@@ -4173,8 +4429,12 @@
       <c r="L66" s="18">
         <v>10848175</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12060000875723335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>70</v>
       </c>
@@ -4194,11 +4454,11 @@
         <v>0.215</v>
       </c>
       <c r="G67" s="10">
-        <f>K67/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.16393442622950821</v>
       </c>
       <c r="H67" s="10">
-        <f>E67/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.87805948853034799</v>
       </c>
       <c r="I67" s="8">
@@ -4213,8 +4473,12 @@
       <c r="L67" s="18">
         <v>8189501</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="1">
+        <f t="shared" ref="M67:M130" si="7">I67 / L67</f>
+        <v>0.21460001042798579</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>71</v>
       </c>
@@ -4234,11 +4498,11 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="G68" s="10">
-        <f>K68/0.305</f>
+        <f t="shared" si="5"/>
         <v>1.9672131147540985E-2</v>
       </c>
       <c r="H68" s="10">
-        <f>E68/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I68" s="8">
@@ -4253,8 +4517,12 @@
       <c r="L68" s="18">
         <v>7346248</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="1">
+        <f t="shared" si="7"/>
+        <v>0.74080006555727496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>72</v>
       </c>
@@ -4274,11 +4542,11 @@
         <v>0.80200000000000005</v>
       </c>
       <c r="G69" s="10">
-        <f>K69/0.305</f>
+        <f t="shared" si="5"/>
         <v>3.9344262295081971E-2</v>
       </c>
       <c r="H69" s="10">
-        <f>E69/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.69513042841985884</v>
       </c>
       <c r="I69" s="8">
@@ -4293,8 +4561,12 @@
       <c r="L69" s="18">
         <v>9821318</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80180002317407906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>73</v>
       </c>
@@ -4314,11 +4586,11 @@
         <v>1</v>
       </c>
       <c r="G70" s="10">
-        <f>K70/0.305</f>
+        <f t="shared" si="5"/>
         <v>2.9508196721311473E-2</v>
       </c>
       <c r="H70" s="10">
-        <f>E70/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.95123111257454362</v>
       </c>
       <c r="I70" s="8">
@@ -4333,8 +4605,12 @@
       <c r="L70" s="18">
         <v>331778</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>74</v>
       </c>
@@ -4354,11 +4630,11 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G71" s="10">
-        <f>K71/0.305</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H71" s="10">
-        <f>E71/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I71" s="8">
@@ -4373,8 +4649,12 @@
       <c r="L71" s="18">
         <v>1326801576</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34830000005969242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>75</v>
       </c>
@@ -4394,11 +4674,11 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="G72" s="10">
-        <f>K72/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.21311475409836067</v>
       </c>
       <c r="H72" s="10">
-        <f>E72/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I72" s="8">
@@ -4413,8 +4693,12 @@
       <c r="L72" s="18">
         <v>260581100</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="1">
+        <f t="shared" si="7"/>
+        <v>0.20430000103614576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>76</v>
       </c>
@@ -4434,11 +4718,11 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="G73" s="10">
-        <f>K73/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.25245901639344265</v>
       </c>
       <c r="H73" s="10">
-        <f>E73/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.7317162404419566</v>
       </c>
       <c r="I73" s="8">
@@ -4453,8 +4737,12 @@
       <c r="L73" s="18">
         <v>80043146</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="1">
+        <f t="shared" si="7"/>
+        <v>0.48910000364053657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>77</v>
       </c>
@@ -4474,11 +4762,11 @@
         <v>0.81</v>
       </c>
       <c r="G74" s="10">
-        <f>K74/0.305</f>
+        <f t="shared" si="5"/>
         <v>3.2786885245901641E-2</v>
       </c>
       <c r="H74" s="10">
-        <f>E74/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.92682837595580447</v>
       </c>
       <c r="I74" s="8">
@@ -4493,8 +4781,12 @@
       <c r="L74" s="18">
         <v>4713993</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80980009940617226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>78</v>
       </c>
@@ -4514,11 +4806,11 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="G75" s="10">
-        <f>K75/0.305</f>
+        <f t="shared" si="5"/>
         <v>6.8852459016393447E-2</v>
       </c>
       <c r="H75" s="10">
-        <f>E75/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.81707093988951096</v>
       </c>
       <c r="I75" s="8">
@@ -4533,8 +4825,12 @@
       <c r="L75" s="18">
         <v>8192463</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="1">
+        <f t="shared" si="7"/>
+        <v>0.72519997954217186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>79</v>
       </c>
@@ -4554,11 +4850,11 @@
         <v>0.65600000000000003</v>
       </c>
       <c r="G76" s="10">
-        <f>K76/0.305</f>
+        <f t="shared" si="5"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H76" s="10">
-        <f>E76/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I76" s="8">
@@ -4573,8 +4869,12 @@
       <c r="L76" s="18">
         <v>59801004</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65569999460209727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>80</v>
       </c>
@@ -4594,11 +4894,11 @@
         <v>0.434</v>
       </c>
       <c r="G77" s="10">
-        <f>K77/0.305</f>
+        <f t="shared" si="5"/>
         <v>8.1967213114754106E-2</v>
       </c>
       <c r="H77" s="10">
-        <f>E77/273.33</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="I77" s="8">
@@ -4613,8 +4913,12 @@
       <c r="L77" s="18">
         <v>2803362</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="1">
+        <f t="shared" si="7"/>
+        <v>0.43379984461514426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>81</v>
       </c>
@@ -4634,11 +4938,11 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="G78" s="10">
-        <f>K78/0.305</f>
+        <f t="shared" si="5"/>
         <v>3.2786885245901639E-3</v>
       </c>
       <c r="H78" s="10">
-        <f>E78/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.75611897706069586</v>
       </c>
       <c r="I78" s="8">
@@ -4653,8 +4957,12 @@
       <c r="L78" s="18">
         <v>126323715</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91124295228334595</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>82</v>
       </c>
@@ -4674,11 +4982,11 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="G79" s="10">
-        <f>K79/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.10491803278688525</v>
       </c>
       <c r="H79" s="10">
-        <f>E79/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.6219588043756632</v>
       </c>
       <c r="I79" s="8">
@@ -4693,8 +5001,12 @@
       <c r="L79" s="18">
         <v>7747800</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45650003872066908</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>83</v>
       </c>
@@ -4714,11 +5026,11 @@
         <v>0.55800000000000005</v>
       </c>
       <c r="G80" s="10">
-        <f>K80/0.305</f>
+        <f t="shared" si="5"/>
         <v>5.9016393442622946E-2</v>
       </c>
       <c r="H80" s="10">
-        <f>E80/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.70731350382321745</v>
       </c>
       <c r="I80" s="8">
@@ -4733,8 +5045,12 @@
       <c r="L80" s="18">
         <v>17855384</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80" s="1">
+        <f t="shared" si="7"/>
+        <v>0.55790001491986951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>84</v>
       </c>
@@ -4754,11 +5070,11 @@
         <v>0.45</v>
       </c>
       <c r="G81" s="10">
-        <f>K81/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.12131147540983606</v>
       </c>
       <c r="H81" s="10">
-        <f>E81/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I81" s="8">
@@ -4773,8 +5089,12 @@
       <c r="L81" s="18">
         <v>47251449</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81" s="1">
+        <f t="shared" si="7"/>
+        <v>0.44970000814154926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>85</v>
       </c>
@@ -4794,11 +5114,11 @@
         <v>0.79900000000000004</v>
       </c>
       <c r="G82" s="10">
-        <f>K82/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.11147540983606559</v>
       </c>
       <c r="H82" s="10">
-        <f>E82/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.87805948853034799</v>
       </c>
       <c r="I82" s="8">
@@ -4813,8 +5133,12 @@
       <c r="L82" s="18">
         <v>4007146</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="1">
+        <f t="shared" si="7"/>
+        <v>0.79909990801433239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>86</v>
       </c>
@@ -4834,11 +5158,11 @@
         <v>0.34399999999999997</v>
       </c>
       <c r="G83" s="10">
-        <f>K83/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.24590163934426229</v>
       </c>
       <c r="H83" s="10">
-        <f>E83/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I83" s="8">
@@ -4853,8 +5177,12 @@
       <c r="L83" s="18">
         <v>6033769</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83" s="1">
+        <f t="shared" si="7"/>
+        <v>0.34410001443542171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>87</v>
       </c>
@@ -4874,11 +5202,11 @@
         <v>0.157</v>
       </c>
       <c r="G84" s="10">
-        <f>K84/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.1540983606557377</v>
       </c>
       <c r="H84" s="10">
-        <f>E84/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I84" s="8">
@@ -4893,8 +5221,12 @@
       <c r="L84" s="18">
         <v>6918367</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15719995773569109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>88</v>
       </c>
@@ -4914,11 +5246,11 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="G85" s="10">
-        <f>K85/0.305</f>
+        <f t="shared" si="5"/>
         <v>-1.6393442622950821E-2</v>
       </c>
       <c r="H85" s="10">
-        <f>E85/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.57318991695020671</v>
       </c>
       <c r="I85" s="8">
@@ -4933,8 +5265,12 @@
       <c r="L85" s="18">
         <v>1955742</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85" s="1">
+        <f t="shared" si="7"/>
+        <v>0.76285675717962798</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>89</v>
       </c>
@@ -4954,11 +5290,11 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="G86" s="10">
-        <f>K86/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.10491803278688525</v>
       </c>
       <c r="H86" s="10">
-        <f>E86/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I86" s="8">
@@ -4973,8 +5309,12 @@
       <c r="L86" s="18">
         <v>5988153</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86" s="1">
+        <f t="shared" si="7"/>
+        <v>0.75899981179505605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>90</v>
       </c>
@@ -4994,11 +5334,11 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G87" s="10">
-        <f>K87/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.59344262295081962</v>
       </c>
       <c r="H87" s="10">
-        <f>E87/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.5243844437127283</v>
       </c>
       <c r="I87" s="8">
@@ -5013,8 +5353,12 @@
       <c r="L87" s="18">
         <v>2160309</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87" s="1">
+        <f t="shared" si="7"/>
+        <v>0.20570020307280115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>91</v>
       </c>
@@ -5034,11 +5378,11 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="G88" s="10">
-        <f>K88/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.32459016393442625</v>
       </c>
       <c r="H88" s="10">
-        <f>E88/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.69513042841985884</v>
       </c>
       <c r="I88" s="8">
@@ -5053,8 +5397,12 @@
       <c r="L88" s="18">
         <v>6330159</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21100654817675196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>92</v>
       </c>
@@ -5074,11 +5422,11 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="G89" s="10">
-        <f>K89/0.305</f>
+        <f t="shared" si="5"/>
         <v>3.6065573770491799E-2</v>
       </c>
       <c r="H89" s="10">
-        <f>E89/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.57318991695020671</v>
       </c>
       <c r="I89" s="8">
@@ -5093,8 +5441,12 @@
       <c r="L89" s="18">
         <v>2850030</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89" s="1">
+        <f t="shared" si="7"/>
+        <v>0.77189994491286051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>93</v>
       </c>
@@ -5114,11 +5466,11 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="G90" s="10">
-        <f>K90/0.305</f>
+        <f t="shared" si="5"/>
         <v>6.2295081967213117E-2</v>
       </c>
       <c r="H90" s="10">
-        <f>E90/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.92682837595580447</v>
       </c>
       <c r="I90" s="8">
@@ -5133,8 +5485,12 @@
       <c r="L90" s="18">
         <v>576243</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90" s="1">
+        <f t="shared" si="7"/>
+        <v>0.95238814180823017</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>94</v>
       </c>
@@ -5154,11 +5510,11 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G91" s="10">
-        <f>K91/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.23934426229508196</v>
       </c>
       <c r="H91" s="10">
-        <f>E91/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.70731350382321745</v>
       </c>
       <c r="I91" s="8">
@@ -5173,8 +5529,12 @@
       <c r="L91" s="18">
         <v>24915822</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91" s="1">
+        <f t="shared" si="7"/>
+        <v>4.2799992711458609E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>95</v>
       </c>
@@ -5194,11 +5554,11 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G92" s="10">
-        <f>K92/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.219672131147541</v>
       </c>
       <c r="H92" s="10">
-        <f>E92/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.56097025573482606</v>
       </c>
       <c r="I92" s="8">
@@ -5213,8 +5573,12 @@
       <c r="L92" s="18">
         <v>17749826</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92" s="1">
+        <f t="shared" si="7"/>
+        <v>6.5400021386125134E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>96</v>
       </c>
@@ -5234,11 +5598,11 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="G93" s="10">
-        <f>K93/0.305</f>
+        <f t="shared" si="5"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H93" s="10">
-        <f>E93/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I93" s="8">
@@ -5253,8 +5617,12 @@
       <c r="L93" s="18">
         <v>30751602</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93" s="1">
+        <f t="shared" si="7"/>
+        <v>0.68584319607154121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>97</v>
       </c>
@@ -5274,11 +5642,11 @@
         <v>0.53600000000000003</v>
       </c>
       <c r="G94" s="10">
-        <f>K94/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.14098360655737704</v>
       </c>
       <c r="H94" s="10">
-        <f>E94/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I94" s="8">
@@ -5293,8 +5661,12 @@
       <c r="L94" s="18">
         <v>369812</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94" s="1">
+        <f t="shared" si="7"/>
+        <v>0.53559916930764817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>98</v>
       </c>
@@ -5314,11 +5686,11 @@
         <v>0.122</v>
       </c>
       <c r="G95" s="10">
-        <f>K95/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.60983606557377046</v>
       </c>
       <c r="H95" s="10">
-        <f>E95/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.64636154099440235</v>
       </c>
       <c r="I95" s="8">
@@ -5333,8 +5705,12 @@
       <c r="L95" s="18">
         <v>18134835</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12200000716852401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>99</v>
       </c>
@@ -5354,11 +5730,11 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="G96" s="10">
-        <f>K96/0.305</f>
+        <f t="shared" si="5"/>
         <v>9.18032786885246E-2</v>
       </c>
       <c r="H96" s="10">
-        <f>E96/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.91464530055244586</v>
       </c>
       <c r="I96" s="8">
@@ -5373,8 +5749,12 @@
       <c r="L96" s="18">
         <v>419615</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="1">
+        <f t="shared" si="7"/>
+        <v>0.79610118799375618</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>100</v>
       </c>
@@ -5394,11 +5774,11 @@
         <v>0.17100000000000001</v>
       </c>
       <c r="G97" s="10">
-        <f>K97/0.305</f>
+        <f t="shared" si="5"/>
         <v>0.5180327868852459</v>
       </c>
       <c r="H97" s="10">
-        <f>E97/273.33</f>
+        <f t="shared" si="6"/>
         <v>0.64636154099440235</v>
       </c>
       <c r="I97" s="8">
@@ -5413,8 +5793,12 @@
       <c r="L97" s="18">
         <v>4166463</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17140005803483674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>101</v>
       </c>
@@ -5434,11 +5818,11 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="G98" s="10">
-        <f>K98/0.305</f>
+        <f t="shared" ref="G98:G129" si="8">K98/0.305</f>
         <v>3.6065573770491799E-2</v>
       </c>
       <c r="H98" s="10">
-        <f>E98/273.33</f>
+        <f t="shared" ref="H98:H129" si="9">E98/273.33</f>
         <v>0.79270478908279374</v>
       </c>
       <c r="I98" s="8">
@@ -5453,8 +5837,12 @@
       <c r="L98" s="18">
         <v>1277459</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="1">
+        <f t="shared" si="7"/>
+        <v>0.42510014020019427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>102</v>
       </c>
@@ -5474,11 +5862,11 @@
         <v>0.45100000000000001</v>
       </c>
       <c r="G99" s="10">
-        <f>K99/0.305</f>
+        <f t="shared" si="8"/>
         <v>6.8852459016393447E-2</v>
       </c>
       <c r="H99" s="10">
-        <f>E99/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I99" s="8">
@@ -5493,8 +5881,12 @@
       <c r="L99" s="18">
         <v>128632004</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45103081034172493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>103</v>
       </c>
@@ -5514,11 +5906,11 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="G100" s="10">
-        <f>K100/0.305</f>
+        <f t="shared" si="8"/>
         <v>2.295081967213115E-2</v>
       </c>
       <c r="H100" s="10">
-        <f>E100/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.42684666886181544</v>
       </c>
       <c r="I100" s="8">
@@ -5533,8 +5925,12 @@
       <c r="L100" s="18">
         <v>4062862</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100" s="1">
+        <f t="shared" si="7"/>
+        <v>0.4790000251054552</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>104</v>
       </c>
@@ -5554,11 +5950,11 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="G101" s="10">
-        <f>K101/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.31803278688524594</v>
       </c>
       <c r="H101" s="10">
-        <f>E101/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.81707093988951096</v>
       </c>
       <c r="I101" s="8">
@@ -5573,8 +5969,12 @@
       <c r="L101" s="18">
         <v>3006444</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="1">
+        <f t="shared" si="7"/>
+        <v>0.35580007477272152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>105</v>
       </c>
@@ -5594,11 +5994,11 @@
         <v>0.57599999999999996</v>
       </c>
       <c r="G102" s="10">
-        <f>K102/0.305</f>
+        <f t="shared" si="8"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H102" s="10">
-        <f>E102/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I102" s="8">
@@ -5613,8 +6013,12 @@
       <c r="L102" s="18">
         <v>34817065</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="1">
+        <f t="shared" si="7"/>
+        <v>0.57639999236006823</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>106</v>
       </c>
@@ -5634,11 +6038,11 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G103" s="10">
-        <f>K103/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.16393442622950821</v>
       </c>
       <c r="H103" s="10">
-        <f>E103/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I103" s="8">
@@ -5653,8 +6057,12 @@
       <c r="L103" s="18">
         <v>28751362</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="1">
+        <f t="shared" si="7"/>
+        <v>6.3800003631132321E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>107</v>
       </c>
@@ -5674,11 +6082,11 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G104" s="10">
-        <f>K104/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="H104" s="10">
-        <f>E104/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.64636154099440235</v>
       </c>
       <c r="I104" s="8">
@@ -5693,8 +6101,12 @@
       <c r="L104" s="18">
         <v>54363426</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="1">
+        <f t="shared" si="7"/>
+        <v>2.489999434546307E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>108</v>
       </c>
@@ -5714,11 +6126,11 @@
         <v>0.156</v>
       </c>
       <c r="G105" s="10">
-        <f>K105/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.12459016393442623</v>
       </c>
       <c r="H105" s="10">
-        <f>E105/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.79270478908279374</v>
       </c>
       <c r="I105" s="8">
@@ -5733,8 +6145,12 @@
       <c r="L105" s="18">
         <v>2513981</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15599998568008269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>109</v>
       </c>
@@ -5754,11 +6170,11 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="G106" s="10">
-        <f>K106/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.14754098360655737</v>
       </c>
       <c r="H106" s="10">
-        <f>E106/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.67072769180111957</v>
       </c>
       <c r="I106" s="8">
@@ -5773,8 +6189,12 @@
       <c r="L106" s="18">
         <v>28850717</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17199998876977651</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>110</v>
       </c>
@@ -5794,11 +6214,11 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="G107" s="10">
-        <f>K107/0.305</f>
+        <f t="shared" si="8"/>
         <v>1.9672131147540985E-2</v>
       </c>
       <c r="H107" s="10">
-        <f>E107/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.91464530055244586</v>
       </c>
       <c r="I107" s="8">
@@ -5813,8 +6233,12 @@
       <c r="L107" s="18">
         <v>16979729</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107" s="1">
+        <f t="shared" si="7"/>
+        <v>0.93729858703869773</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>111</v>
       </c>
@@ -5834,11 +6258,11 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="G108" s="10">
-        <f>K108/0.305</f>
+        <f t="shared" si="8"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H108" s="10">
-        <f>E108/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I108" s="8">
@@ -5853,8 +6277,12 @@
       <c r="L108" s="18">
         <v>4565185</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108" s="1">
+        <f t="shared" si="7"/>
+        <v>0.89350004435745756</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>112</v>
       </c>
@@ -5874,11 +6302,11 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G109" s="10">
-        <f>K109/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.13442622950819674</v>
       </c>
       <c r="H109" s="10">
-        <f>E109/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I109" s="8">
@@ -5893,8 +6321,12 @@
       <c r="L109" s="18">
         <v>6150035</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109" s="1">
+        <f t="shared" si="7"/>
+        <v>0.19420003300794222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>113</v>
       </c>
@@ -5914,11 +6346,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G110" s="10">
-        <f>K110/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.219672131147541</v>
       </c>
       <c r="H110" s="10">
-        <f>E110/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.54878718033146745</v>
       </c>
       <c r="I110" s="8">
@@ -5933,8 +6365,12 @@
       <c r="L110" s="18">
         <v>20715285</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1199997972511601E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>114</v>
       </c>
@@ -5954,11 +6390,11 @@
         <v>0.46100000000000002</v>
       </c>
       <c r="G111" s="10">
-        <f>K111/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.16393442622950821</v>
       </c>
       <c r="H111" s="10">
-        <f>E111/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.67072769180111957</v>
       </c>
       <c r="I111" s="8">
@@ -5973,8 +6409,12 @@
       <c r="L111" s="18">
         <v>186987563</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46109999839935878</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>115</v>
       </c>
@@ -5994,11 +6434,11 @@
         <v>0.98</v>
       </c>
       <c r="G112" s="10">
-        <f>K112/0.305</f>
+        <f t="shared" si="8"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H112" s="10">
-        <f>E112/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I112" s="8">
@@ -6013,8 +6453,12 @@
       <c r="L112" s="18">
         <v>5271958</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="1">
+        <f t="shared" si="7"/>
+        <v>0.98019995606945276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>116</v>
       </c>
@@ -6034,11 +6478,11 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="G113" s="10">
-        <f>K113/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.13442622950819674</v>
       </c>
       <c r="H113" s="10">
-        <f>E113/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.8902425639337066</v>
       </c>
       <c r="I113" s="8">
@@ -6053,8 +6497,12 @@
       <c r="L113" s="18">
         <v>4654471</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="1">
+        <f t="shared" si="7"/>
+        <v>0.7112000482976476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>117</v>
       </c>
@@ -6074,11 +6522,11 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="G114" s="10">
-        <f>K114/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.31803278688524594</v>
       </c>
       <c r="H114" s="10">
-        <f>E114/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.5243844437127283</v>
       </c>
       <c r="I114" s="8">
@@ -6093,8 +6541,12 @@
       <c r="L114" s="18">
         <v>192826502</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17809999996784676</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>118</v>
       </c>
@@ -6114,11 +6566,11 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="G115" s="10">
-        <f>K115/0.305</f>
+        <f t="shared" si="8"/>
         <v>6.2295081967213117E-2</v>
       </c>
       <c r="H115" s="10">
-        <f>E115/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.87805948853034799</v>
       </c>
       <c r="I115" s="8">
@@ -6133,8 +6585,12 @@
       <c r="L115" s="18">
         <v>3990406</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45189913006345722</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>119</v>
       </c>
@@ -6154,11 +6610,11 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="G116" s="10">
-        <f>K116/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.28196721311475409</v>
       </c>
       <c r="H116" s="10">
-        <f>E116/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I116" s="8">
@@ -6173,8 +6629,12 @@
       <c r="L116" s="18">
         <v>7776115</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116" s="1">
+        <f t="shared" si="7"/>
+        <v>0.11659999884260971</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>120</v>
       </c>
@@ -6194,11 +6654,11 @@
         <v>0.46800000000000003</v>
       </c>
       <c r="G117" s="10">
-        <f>K117/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.12786885245901639</v>
       </c>
       <c r="H117" s="10">
-        <f>E117/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.79270478908279374</v>
       </c>
       <c r="I117" s="8">
@@ -6213,8 +6673,12 @@
       <c r="L117" s="18">
         <v>6725430</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46830001947830846</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>121</v>
       </c>
@@ -6234,11 +6698,11 @@
         <v>0.41</v>
       </c>
       <c r="G118" s="10">
-        <f>K118/0.305</f>
+        <f t="shared" si="8"/>
         <v>6.2295081967213117E-2</v>
       </c>
       <c r="H118" s="10">
-        <f>E118/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I118" s="8">
@@ -6253,8 +6717,12 @@
       <c r="L118" s="18">
         <v>31774225</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="1">
+        <f t="shared" si="7"/>
+        <v>0.41030001518526416</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>122</v>
       </c>
@@ -6274,11 +6742,11 @@
         <v>0.435</v>
       </c>
       <c r="G119" s="10">
-        <f>K119/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.1442622950819672</v>
       </c>
       <c r="H119" s="10">
-        <f>E119/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.78048512786741309</v>
       </c>
       <c r="I119" s="8">
@@ -6293,8 +6761,12 @@
       <c r="L119" s="18">
         <v>102250133</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="1">
+        <f t="shared" si="7"/>
+        <v>0.43500000141809109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>123</v>
       </c>
@@ -6314,11 +6786,11 @@
         <v>0.72399999999999998</v>
       </c>
       <c r="G120" s="10">
-        <f>K120/0.305</f>
+        <f t="shared" si="8"/>
         <v>8.1967213114754106E-2</v>
       </c>
       <c r="H120" s="10">
-        <f>E120/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.71953316503859799</v>
       </c>
       <c r="I120" s="8">
@@ -6333,8 +6805,12 @@
       <c r="L120" s="18">
         <v>38593161</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="1">
+        <f t="shared" si="7"/>
+        <v>0.72350000042753693</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>124</v>
       </c>
@@ -6354,11 +6830,11 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="G121" s="10">
-        <f>K121/0.305</f>
+        <f t="shared" si="8"/>
         <v>2.6229508196721311E-2</v>
       </c>
       <c r="H121" s="10">
-        <f>E121/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.74389931584531532</v>
       </c>
       <c r="I121" s="8">
@@ -6373,8 +6849,12 @@
       <c r="L121" s="18">
         <v>10304434</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121" s="1">
+        <f t="shared" si="7"/>
+        <v>0.67259997007113637</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>125</v>
       </c>
@@ -6394,11 +6874,11 @@
         <v>0.92</v>
       </c>
       <c r="G122" s="10">
-        <f>K122/0.305</f>
+        <f t="shared" si="8"/>
         <v>9.18032786885246E-2</v>
       </c>
       <c r="H122" s="10">
-        <f>E122/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.85365675191160872</v>
       </c>
       <c r="I122" s="8">
@@ -6413,8 +6893,12 @@
       <c r="L122" s="18">
         <v>2291368</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122" s="1">
+        <f t="shared" si="7"/>
+        <v>0.92039777111315157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>126</v>
       </c>
@@ -6434,11 +6918,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G123" s="10">
-        <f>K123/0.305</f>
+        <f t="shared" si="8"/>
         <v>4.59016393442623E-2</v>
       </c>
       <c r="H123" s="10">
-        <f>E123/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.63414187977902181</v>
       </c>
       <c r="I123" s="8">
@@ -6453,8 +6937,12 @@
       <c r="L123" s="18">
         <v>19372734</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="1">
+        <f t="shared" si="7"/>
+        <v>0.58000001445330329</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>127</v>
       </c>
@@ -6474,11 +6962,11 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="G124" s="10">
-        <f>K124/0.305</f>
+        <f t="shared" si="8"/>
         <v>9.8360655737704927E-3</v>
       </c>
       <c r="H124" s="10">
-        <f>E124/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.5243844437127283</v>
       </c>
       <c r="I124" s="8">
@@ -6493,8 +6981,12 @@
       <c r="L124" s="18">
         <v>143439832</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124" s="1">
+        <f t="shared" si="7"/>
+        <v>0.71289999837701989</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>128</v>
       </c>
@@ -6514,11 +7006,11 @@
         <v>0.124</v>
       </c>
       <c r="G125" s="10">
-        <f>K125/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.23934426229508196</v>
       </c>
       <c r="H125" s="10">
-        <f>E125/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.53660410492810884</v>
       </c>
       <c r="I125" s="8">
@@ -6533,8 +7025,12 @@
       <c r="L125" s="18">
         <v>11882766</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12439999239234367</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>129</v>
       </c>
@@ -6554,11 +7050,11 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="G126" s="10">
-        <f>K126/0.305</f>
+        <f t="shared" si="8"/>
         <v>4.9180327868852458E-2</v>
       </c>
       <c r="H126" s="10">
-        <f>E126/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I126" s="8">
@@ -6573,8 +7069,12 @@
       <c r="L126" s="18">
         <v>56183</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126" s="1">
+        <f t="shared" si="7"/>
+        <v>0.66229998398091949</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>130</v>
       </c>
@@ -6594,11 +7094,11 @@
         <v>0.58699999999999997</v>
       </c>
       <c r="G127" s="10">
-        <f>K127/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.16393442622950821</v>
       </c>
       <c r="H127" s="10">
-        <f>E127/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.85365675191160872</v>
       </c>
       <c r="I127" s="8">
@@ -6613,8 +7113,12 @@
       <c r="L127" s="18">
         <v>186383</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127" s="1">
+        <f t="shared" si="7"/>
+        <v>0.58680244442894469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>131</v>
       </c>
@@ -6634,11 +7138,11 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G128" s="10">
-        <f>K128/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.31803278688524594</v>
       </c>
       <c r="H128" s="10">
-        <f>E128/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I128" s="8">
@@ -6653,8 +7157,12 @@
       <c r="L128" s="18">
         <v>194523</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128" s="1">
+        <f t="shared" si="7"/>
+        <v>0.28980120602705078</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>132</v>
       </c>
@@ -6674,11 +7182,11 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="G129" s="10">
-        <f>K129/0.305</f>
+        <f t="shared" si="8"/>
         <v>0.11803278688524589</v>
       </c>
       <c r="H129" s="10">
-        <f>E129/273.33</f>
+        <f t="shared" si="9"/>
         <v>0.81707093988951096</v>
       </c>
       <c r="I129" s="8">
@@ -6693,8 +7201,12 @@
       <c r="L129" s="18">
         <v>194390</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129" s="1">
+        <f t="shared" si="7"/>
+        <v>0.25559956787900612</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
         <v>133</v>
       </c>
@@ -6714,11 +7226,11 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="G130" s="10">
-        <f>K130/0.305</f>
+        <f t="shared" ref="G130:G161" si="10">K130/0.305</f>
         <v>9.18032786885246E-2</v>
       </c>
       <c r="H130" s="10">
-        <f>E130/273.33</f>
+        <f t="shared" ref="H130:H161" si="11">E130/273.33</f>
         <v>0.8902425639337066</v>
       </c>
       <c r="I130" s="8">
@@ -6733,8 +7245,12 @@
       <c r="L130" s="18">
         <v>32157974</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130" s="1">
+        <f t="shared" si="7"/>
+        <v>0.64723278276174989</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>134</v>
       </c>
@@ -6754,11 +7270,11 @@
         <v>0.23400000000000001</v>
       </c>
       <c r="G131" s="10">
-        <f>K131/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.3737704918032787</v>
       </c>
       <c r="H131" s="10">
-        <f>E131/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.68294735301650022</v>
       </c>
       <c r="I131" s="8">
@@ -6773,8 +7289,12 @@
       <c r="L131" s="18">
         <v>15589485</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131" s="1">
+        <f t="shared" ref="M131:M168" si="12">I131 / L131</f>
+        <v>0.23399996856855759</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>135</v>
       </c>
@@ -6794,11 +7314,11 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="G132" s="10">
-        <f>K132/0.305</f>
+        <f t="shared" si="10"/>
         <v>8.5245901639344257E-2</v>
       </c>
       <c r="H132" s="10">
-        <f>E132/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I132" s="8">
@@ -6813,8 +7333,12 @@
       <c r="L132" s="18">
         <v>97026</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132" s="1">
+        <f t="shared" si="12"/>
+        <v>0.57889637829035512</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>136</v>
       </c>
@@ -6834,11 +7358,11 @@
         <v>2.4E-2</v>
       </c>
       <c r="G133" s="10">
-        <f>K133/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.21639344262295082</v>
       </c>
       <c r="H133" s="10">
-        <f>E133/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.60977572897230448</v>
       </c>
       <c r="I133" s="8">
@@ -6853,8 +7377,12 @@
       <c r="L133" s="18">
         <v>6592102</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133" s="1">
+        <f t="shared" si="12"/>
+        <v>2.4299988076640803E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>137</v>
       </c>
@@ -6874,11 +7402,11 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G134" s="10">
-        <f>K134/0.305</f>
+        <f t="shared" si="10"/>
         <v>6.5573770491803282E-2</v>
       </c>
       <c r="H134" s="10">
-        <f>E134/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I134" s="8">
@@ -6893,8 +7421,12 @@
       <c r="L134" s="18">
         <v>5696506</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134" s="1">
+        <f t="shared" si="12"/>
+        <v>0.82492742042227285</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>138</v>
       </c>
@@ -6914,11 +7446,11 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="G135" s="10">
-        <f>K135/0.305</f>
+        <f t="shared" si="10"/>
         <v>3.2786885245901641E-2</v>
       </c>
       <c r="H135" s="10">
-        <f>E135/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.65854461639776096</v>
       </c>
       <c r="I135" s="8">
@@ -6933,8 +7465,12 @@
       <c r="L135" s="18">
         <v>5429418</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135" s="1">
+        <f t="shared" si="12"/>
+        <v>0.82469999546912764</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>139</v>
       </c>
@@ -6954,11 +7490,11 @@
         <v>0.72</v>
       </c>
       <c r="G136" s="10">
-        <f>K136/0.305</f>
+        <f t="shared" si="10"/>
         <v>1.3114754098360656E-2</v>
       </c>
       <c r="H136" s="10">
-        <f>E136/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I136" s="8">
@@ -6973,8 +7509,12 @@
       <c r="L136" s="18">
         <v>2069362</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136" s="1">
+        <f t="shared" si="12"/>
+        <v>0.720201685350364</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
         <v>140</v>
       </c>
@@ -6994,11 +7534,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G137" s="10">
-        <f>K137/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.15081967213114755</v>
       </c>
       <c r="H137" s="10">
-        <f>E137/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I137" s="8">
@@ -7013,8 +7553,12 @@
       <c r="L137" s="18">
         <v>594934</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137" s="1">
+        <f t="shared" si="12"/>
+        <v>9.820080882921467E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>141</v>
       </c>
@@ -7034,11 +7578,11 @@
         <v>0.52</v>
       </c>
       <c r="G138" s="10">
-        <f>K138/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.12786885245901639</v>
       </c>
       <c r="H138" s="10">
-        <f>E138/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.69513042841985884</v>
       </c>
       <c r="I138" s="8">
@@ -7053,8 +7597,12 @@
       <c r="L138" s="18">
         <v>54978907</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138" s="1">
+        <f t="shared" si="12"/>
+        <v>0.51984100011300693</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>142</v>
       </c>
@@ -7074,11 +7622,11 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="G139" s="10">
-        <f>K139/0.305</f>
+        <f t="shared" si="10"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H139" s="10">
-        <f>E139/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.85365675191160872</v>
       </c>
       <c r="I139" s="8">
@@ -7093,8 +7641,12 @@
       <c r="L139" s="18">
         <v>46064604</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139" s="1">
+        <f t="shared" si="12"/>
+        <v>0.82199998940618269</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>143</v>
       </c>
@@ -7114,11 +7666,11 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="G140" s="10">
-        <f>K140/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.13770491803278689</v>
       </c>
       <c r="H140" s="10">
-        <f>E140/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.74389931584531532</v>
       </c>
       <c r="I140" s="8">
@@ -7133,8 +7685,12 @@
       <c r="L140" s="18">
         <v>20810816</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140" s="1">
+        <f t="shared" si="12"/>
+        <v>0.29250001537661952</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>144</v>
       </c>
@@ -7154,11 +7710,11 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="G141" s="10">
-        <f>K141/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.14754098360655737</v>
       </c>
       <c r="H141" s="10">
-        <f>E141/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.43902974426517399</v>
       </c>
       <c r="I141" s="8">
@@ -7173,8 +7729,12 @@
       <c r="L141" s="18">
         <v>41175541</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141" s="1">
+        <f t="shared" si="12"/>
+        <v>0.26439999901883499</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>145</v>
       </c>
@@ -7194,11 +7754,11 @@
         <v>0.42299999999999999</v>
       </c>
       <c r="G142" s="10">
-        <f>K142/0.305</f>
+        <f t="shared" si="10"/>
         <v>8.1967213114754106E-2</v>
       </c>
       <c r="H142" s="10">
-        <f>E142/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.8902425639337066</v>
       </c>
       <c r="I142" s="8">
@@ -7213,8 +7773,12 @@
       <c r="L142" s="18">
         <v>547610</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142" s="1">
+        <f t="shared" si="12"/>
+        <v>0.4226000255656398</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>146</v>
       </c>
@@ -7234,11 +7798,11 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="G143" s="10">
-        <f>K143/0.305</f>
+        <f t="shared" si="10"/>
         <v>7.2131147540983598E-2</v>
       </c>
       <c r="H143" s="10">
-        <f>E143/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.51220136830936969</v>
       </c>
       <c r="I143" s="8">
@@ -7253,8 +7817,12 @@
       <c r="L143" s="18">
         <v>1304063</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143" s="1">
+        <f t="shared" si="12"/>
+        <v>0.27830020482139284</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>147</v>
       </c>
@@ -7274,11 +7842,11 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="G144" s="10">
-        <f>K144/0.305</f>
+        <f t="shared" si="10"/>
         <v>3.2786885245901641E-2</v>
       </c>
       <c r="H144" s="10">
-        <f>E144/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.93904803717118512</v>
       </c>
       <c r="I144" s="8">
@@ -7293,8 +7861,12 @@
       <c r="L144" s="18">
         <v>9851852</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144" s="1">
+        <f t="shared" si="12"/>
+        <v>0.93075951607880425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>148</v>
       </c>
@@ -7314,11 +7886,11 @@
         <v>0.872</v>
       </c>
       <c r="G145" s="10">
-        <f>K145/0.305</f>
+        <f t="shared" si="10"/>
         <v>3.2786885245901641E-2</v>
       </c>
       <c r="H145" s="10">
-        <f>E145/273.33</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I145" s="8">
@@ -7333,8 +7905,12 @@
       <c r="L145" s="18">
         <v>8379477</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145" s="1">
+        <f t="shared" si="12"/>
+        <v>0.87149997547579638</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>149</v>
       </c>
@@ -7354,11 +7930,11 @@
         <v>0.29599999999999999</v>
       </c>
       <c r="G146" s="10">
-        <f>K146/0.305</f>
+        <f t="shared" si="10"/>
         <v>6.5573770491803282E-2</v>
       </c>
       <c r="H146" s="10">
-        <f>E146/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.6219588043756632</v>
       </c>
       <c r="I146" s="8">
@@ -7373,8 +7949,12 @@
       <c r="L146" s="18">
         <v>18563595</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146" s="1">
+        <f t="shared" si="12"/>
+        <v>0.29640002381004327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>150</v>
       </c>
@@ -7394,11 +7974,11 @@
         <v>0.187</v>
       </c>
       <c r="G147" s="10">
-        <f>K147/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.14098360655737704</v>
       </c>
       <c r="H147" s="10">
-        <f>E147/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.74389931584531532</v>
       </c>
       <c r="I147" s="8">
@@ -7413,8 +7993,12 @@
       <c r="L147" s="18">
         <v>8669464</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147" s="1">
+        <f t="shared" si="12"/>
+        <v>0.18720003912583291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>151</v>
       </c>
@@ -7434,11 +8018,11 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="G148" s="10">
-        <f>K148/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.1836065573770492</v>
       </c>
       <c r="H148" s="10">
-        <f>E148/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.67072769180111957</v>
       </c>
       <c r="I148" s="8">
@@ -7453,8 +8037,12 @@
       <c r="L148" s="18">
         <v>55155473</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148" s="1">
+        <f t="shared" si="12"/>
+        <v>5.2499993971586466E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>152</v>
       </c>
@@ -7474,11 +8062,11 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="G149" s="10">
-        <f>K149/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.20327868852459016</v>
       </c>
       <c r="H149" s="10">
-        <f>E149/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.79270478908279374</v>
       </c>
       <c r="I149" s="8">
@@ -7493,8 +8081,12 @@
       <c r="L149" s="18">
         <v>68146609</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149" s="1">
+        <f t="shared" si="12"/>
+        <v>0.42669999911514306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>153</v>
       </c>
@@ -7514,11 +8106,11 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="G150" s="10">
-        <f>K150/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.32786885245901642</v>
       </c>
       <c r="H150" s="10">
-        <f>E150/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.59755606775692394</v>
       </c>
       <c r="I150" s="8">
@@ -7533,8 +8125,12 @@
       <c r="L150" s="18">
         <v>7496833</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150" s="1">
+        <f t="shared" si="12"/>
+        <v>7.2700032133568931E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>154</v>
       </c>
@@ -7554,11 +8150,11 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="G151" s="10">
-        <f>K151/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.17377049180327869</v>
       </c>
       <c r="H151" s="10">
-        <f>E151/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.80488786448615235</v>
       </c>
       <c r="I151" s="8">
@@ -7573,8 +8169,12 @@
       <c r="L151" s="18">
         <v>106915</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151" s="1">
+        <f t="shared" si="12"/>
+        <v>0.46599635224243557</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
         <v>155</v>
       </c>
@@ -7594,11 +8194,11 @@
         <v>0.69099999999999995</v>
       </c>
       <c r="G152" s="10">
-        <f>K152/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.11147540983606559</v>
       </c>
       <c r="H152" s="10">
-        <f>E152/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.84147367650825011</v>
       </c>
       <c r="I152" s="8">
@@ -7613,8 +8213,12 @@
       <c r="L152" s="18">
         <v>1364973</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152" s="1">
+        <f t="shared" si="12"/>
+        <v>0.69064589555983891</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
         <v>156</v>
       </c>
@@ -7634,11 +8238,11 @@
         <v>0.48099999999999998</v>
       </c>
       <c r="G153" s="10">
-        <f>K153/0.305</f>
+        <f t="shared" si="10"/>
         <v>7.8688524590163941E-2</v>
       </c>
       <c r="H153" s="10">
-        <f>E153/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.78048512786741309</v>
       </c>
       <c r="I153" s="8">
@@ -7653,8 +8257,12 @@
       <c r="L153" s="18">
         <v>11375220</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153" s="1">
+        <f t="shared" si="12"/>
+        <v>0.48109996993464743</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
         <v>157</v>
       </c>
@@ -7674,11 +8282,11 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G154" s="10">
-        <f>K154/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.16721311475409836</v>
       </c>
       <c r="H154" s="10">
-        <f>E154/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.64636154099440235</v>
       </c>
       <c r="I154" s="8">
@@ -7693,8 +8301,12 @@
       <c r="L154" s="18">
         <v>79622062</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154" s="1">
+        <f t="shared" si="12"/>
+        <v>0.58019999532290434</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
         <v>158</v>
       </c>
@@ -7714,11 +8326,11 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="G155" s="10">
-        <f>K155/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.20983606557377049</v>
       </c>
       <c r="H155" s="10">
-        <f>E155/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.48779863169063042</v>
       </c>
       <c r="I155" s="8">
@@ -7733,8 +8345,12 @@
       <c r="L155" s="18">
         <v>5438670</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155" s="1">
+        <f t="shared" si="12"/>
+        <v>0.1450999968742358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
         <v>159</v>
       </c>
@@ -7754,11 +8370,11 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="G156" s="10">
-        <f>K156/0.305</f>
+        <f t="shared" si="10"/>
         <v>2.9508196721311473E-2</v>
       </c>
       <c r="H156" s="10">
-        <f>E156/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.86587641312698937</v>
       </c>
       <c r="I156" s="8">
@@ -7773,8 +8389,12 @@
       <c r="L156" s="18">
         <v>65111143</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156" s="1">
+        <f t="shared" si="12"/>
+        <v>0.9256999988465876</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
         <v>160</v>
       </c>
@@ -7794,11 +8414,11 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="G157" s="10">
-        <f>K157/0.305</f>
+        <f t="shared" si="10"/>
         <v>3.6065573770491799E-2</v>
       </c>
       <c r="H157" s="10">
-        <f>E157/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I157" s="8">
@@ -7813,8 +8433,12 @@
       <c r="L157" s="18">
         <v>324118787</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157" s="1">
+        <f t="shared" si="12"/>
+        <v>0.88529999959551864</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>161</v>
       </c>
@@ -7834,11 +8458,11 @@
         <v>0.19</v>
       </c>
       <c r="G158" s="10">
-        <f>K158/0.305</f>
+        <f t="shared" si="10"/>
         <v>0.18032786885245902</v>
       </c>
       <c r="H158" s="10">
-        <f>E158/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.57318991695020671</v>
       </c>
       <c r="I158" s="8">
@@ -7853,8 +8477,12 @@
       <c r="L158" s="18">
         <v>40322768</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158" s="1">
+        <f t="shared" si="12"/>
+        <v>0.18960000464253843</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>162</v>
       </c>
@@ -7874,11 +8502,11 @@
         <v>0.441</v>
       </c>
       <c r="G159" s="10">
-        <f>K159/0.305</f>
+        <f t="shared" si="10"/>
         <v>1.3114754098360656E-2</v>
       </c>
       <c r="H159" s="10">
-        <f>E159/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.43902974426517399</v>
       </c>
       <c r="I159" s="8">
@@ -7893,8 +8521,12 @@
       <c r="L159" s="18">
         <v>44624373</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159" s="1">
+        <f t="shared" si="12"/>
+        <v>0.4409717756706632</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>163</v>
       </c>
@@ -7914,11 +8546,11 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="G160" s="10">
-        <f>K160/0.305</f>
+        <f t="shared" si="10"/>
         <v>5.5737704918032795E-2</v>
       </c>
       <c r="H160" s="10">
-        <f>E160/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I160" s="8">
@@ -7933,8 +8565,12 @@
       <c r="L160" s="18">
         <v>9266971</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160" s="1">
+        <f t="shared" si="12"/>
+        <v>0.91890003756351457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>164</v>
       </c>
@@ -7954,11 +8590,11 @@
         <v>0.65</v>
       </c>
       <c r="G161" s="10">
-        <f>K161/0.305</f>
+        <f t="shared" si="10"/>
         <v>6.8852459016393447E-2</v>
       </c>
       <c r="H161" s="10">
-        <f>E161/273.33</f>
+        <f t="shared" si="11"/>
         <v>0.76830205246405447</v>
       </c>
       <c r="I161" s="8">
@@ -7973,8 +8609,12 @@
       <c r="L161" s="18">
         <v>3444071</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161" s="1">
+        <f t="shared" si="12"/>
+        <v>0.65010012859781341</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>165</v>
       </c>
@@ -7994,11 +8634,11 @@
         <v>0.51</v>
       </c>
       <c r="G162" s="10">
-        <f>K162/0.305</f>
+        <f t="shared" ref="G162:G168" si="13">K162/0.305</f>
         <v>0.2</v>
       </c>
       <c r="H162" s="10">
-        <f>E162/273.33</f>
+        <f t="shared" ref="H162:H168" si="14">E162/273.33</f>
         <v>0.78048512786741309</v>
       </c>
       <c r="I162" s="8">
@@ -8013,8 +8653,12 @@
       <c r="L162" s="18">
         <v>30300446</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162" s="1">
+        <f t="shared" si="12"/>
+        <v>0.50999998481870534</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>166</v>
       </c>
@@ -8034,11 +8678,11 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G163" s="10">
-        <f>K163/0.305</f>
+        <f t="shared" si="13"/>
         <v>0.52459016393442626</v>
       </c>
       <c r="H163" s="10">
-        <f>E163/273.33</f>
+        <f t="shared" si="14"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I163" s="8">
@@ -8053,8 +8697,12 @@
       <c r="L163" s="18">
         <v>270470</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163" s="1">
+        <f t="shared" si="12"/>
+        <v>0.30600066550818944</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>167</v>
       </c>
@@ -8074,11 +8722,11 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="G164" s="10">
-        <f>K164/0.305</f>
+        <f t="shared" si="13"/>
         <v>6.8852459016393447E-2</v>
       </c>
       <c r="H164" s="10">
-        <f>E164/273.33</f>
+        <f t="shared" si="14"/>
         <v>0.90246222514908714</v>
       </c>
       <c r="I164" s="8">
@@ -8093,8 +8741,12 @@
       <c r="L164" s="18">
         <v>31518855</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164" s="1">
+        <f t="shared" si="12"/>
+        <v>0.57915647633773504</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>168</v>
       </c>
@@ -8114,11 +8766,11 @@
         <v>0.52</v>
       </c>
       <c r="G165" s="10">
-        <f>K165/0.305</f>
+        <f t="shared" si="13"/>
         <v>0.10819672131147541</v>
       </c>
       <c r="H165" s="10">
-        <f>E165/273.33</f>
+        <f t="shared" si="14"/>
         <v>0.74389931584531532</v>
       </c>
       <c r="I165" s="8">
@@ -8133,8 +8785,12 @@
       <c r="L165" s="18">
         <v>94444200</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165" s="1">
+        <f t="shared" si="12"/>
+        <v>0.51950000105882632</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>169</v>
       </c>
@@ -8154,11 +8810,11 @@
         <v>0.247</v>
       </c>
       <c r="G166" s="10">
-        <f>K166/0.305</f>
+        <f t="shared" si="13"/>
         <v>0.17049180327868851</v>
       </c>
       <c r="H166" s="10">
-        <f>E166/273.33</f>
+        <f t="shared" si="14"/>
         <v>0.75611897706069586</v>
       </c>
       <c r="I166" s="8">
@@ -8173,8 +8829,12 @@
       <c r="L166" s="18">
         <v>27477600</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166" s="1">
+        <f t="shared" si="12"/>
+        <v>0.24649998544268786</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>170</v>
       </c>
@@ -8194,11 +8854,11 @@
         <v>0.19</v>
       </c>
       <c r="G167" s="10">
-        <f>K167/0.305</f>
+        <f t="shared" si="13"/>
         <v>0.19344262295081965</v>
       </c>
       <c r="H167" s="10">
-        <f>E167/273.33</f>
+        <f t="shared" si="14"/>
         <v>0.59755606775692394</v>
       </c>
       <c r="I167" s="8">
@@ -8213,8 +8873,12 @@
       <c r="L167" s="18">
         <v>16717332</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M167" s="1">
+        <f t="shared" si="12"/>
+        <v>0.18949997523528275</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
         <v>171</v>
       </c>
@@ -8234,11 +8898,11 @@
         <v>0.21</v>
       </c>
       <c r="G168" s="23">
-        <f>K168/0.305</f>
+        <f t="shared" si="13"/>
         <v>0.13442622950819674</v>
       </c>
       <c r="H168" s="23">
-        <f>E168/273.33</f>
+        <f t="shared" si="14"/>
         <v>0.40244393224307617</v>
       </c>
       <c r="I168" s="21">
@@ -8253,33 +8917,37 @@
       <c r="L168" s="24">
         <v>15966810</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168" s="1">
+        <f t="shared" si="12"/>
+        <v>0.21019997106497793</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F169" s="4"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K170" s="6"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K171" s="6"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K172" s="6"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K173" s="6"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K174" s="6"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K175" s="6"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K176" s="6"/>
     </row>
     <row r="177" spans="11:11" x14ac:dyDescent="0.25">
